--- a/medicine/Handicap/Cavalcade_(film,_2005)/Cavalcade_(film,_2005).xlsx
+++ b/medicine/Handicap/Cavalcade_(film,_2005)/Cavalcade_(film,_2005).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavalcade est un film français de Steve Suissa sorti en 2005.
-Le scénario est inspiré d'une histoire vraie adaptée du roman autobiographique de Bruno de Stabenrath[1].
+Le scénario est inspiré d'une histoire vraie adaptée du roman autobiographique de Bruno de Stabenrath.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léo est un jeune homme à qui tout réussit. Seulement, son rythme de vie, principalement noctambule, ne convient plus à Alizée, sa compagne, qui le somme de changer s'il ne veut pas vivre seul. La jeune femme lui laisse quelques jours pour réfléchir. Alors que Léo part en voiture pour la rejoindre, il est victime d'un accident. Plongé dans le coma, il se réveille quelques jours plus tard dans un hôpital de la région parisienne et découvre qu'il est tétraplégique. Entouré par sa famille et ses amis, il tente peu à peu de se faire à cette nouvelle existence. Mais le parcours est difficile et les occasions de se décourager sont nombreuses...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Durée : 90 minutes
 Date de sortie : 25 mai 2005
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titoff : Léo Champollon
